--- a/public/excel/writed_form1.xlsx
+++ b/public/excel/writed_form1.xlsx
@@ -13082,7 +13082,9 @@
         <v>75</v>
       </c>
       <c r="B20" s="380"/>
-      <c r="C20" s="389"/>
+      <c r="C20" s="2" t="str">
+        <v>大学院環境生命自然科学研究科</v>
+      </c>
       <c r="D20" s="390"/>
       <c r="E20" s="390"/>
       <c r="F20" s="390"/>
@@ -13097,7 +13099,9 @@
         <v>130</v>
       </c>
       <c r="O20" s="391"/>
-      <c r="P20" s="186"/>
+      <c r="P20" s="2" t="str">
+        <v>前</v>
+      </c>
       <c r="Q20" s="392" t="s">
         <v>29</v>
       </c>
@@ -13141,7 +13145,9 @@
       <c r="O21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P21" s="183"/>
+      <c r="P21" s="2" t="str">
+        <v>M1</v>
+      </c>
       <c r="Q21" s="449" t="s">
         <v>13</v>
       </c>

--- a/public/excel/writed_form1.xlsx
+++ b/public/excel/writed_form1.xlsx
@@ -12728,7 +12728,7 @@
       <c r="S10" s="387"/>
       <c r="T10" s="387"/>
       <c r="U10" s="2" t="str">
-        <v>ダミー君</v>
+        <v>TA1</v>
       </c>
       <c r="V10" s="493"/>
       <c r="W10" s="493"/>
@@ -13041,7 +13041,7 @@
       </c>
       <c r="B19" s="224"/>
       <c r="C19" s="2" t="str">
-        <v>ダミー君</v>
+        <v>TA1</v>
       </c>
       <c r="D19" s="493"/>
       <c r="E19" s="493"/>
@@ -13064,7 +13064,7 @@
       </c>
       <c r="U19" s="348"/>
       <c r="V19" s="2" t="str">
-        <v>00000000</v>
+        <v>50M23001</v>
       </c>
       <c r="W19" s="495"/>
       <c r="X19" s="495"/>
@@ -13082,7 +13082,9 @@
         <v>75</v>
       </c>
       <c r="B20" s="380"/>
-      <c r="C20" s="389"/>
+      <c r="C20" s="2" t="str">
+        <v>大学院環境生命自然科学研究科</v>
+      </c>
       <c r="D20" s="390"/>
       <c r="E20" s="390"/>
       <c r="F20" s="390"/>
@@ -13097,7 +13099,9 @@
         <v>130</v>
       </c>
       <c r="O20" s="391"/>
-      <c r="P20" s="186"/>
+      <c r="P20" s="2" t="str">
+        <v>前</v>
+      </c>
       <c r="Q20" s="392" t="s">
         <v>29</v>
       </c>
@@ -13141,7 +13145,9 @@
       <c r="O21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P21" s="183"/>
+      <c r="P21" s="2" t="str">
+        <v>M1</v>
+      </c>
       <c r="Q21" s="449" t="s">
         <v>13</v>
       </c>
@@ -13222,9 +13228,7 @@
       <c r="N23" s="189" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="2" t="str">
-        <v>Z1</v>
-      </c>
+      <c r="O23" s="189"/>
       <c r="P23" s="388" t="s">
         <v>13</v>
       </c>
@@ -13854,30 +13858,41 @@
     </row>
     <row r="37" spans="1:32" customFormat="false" ht="25.5" customHeight="1">
       <c r="A37" s="560"/>
-      <c r="B37" s="556"/>
+      <c r="B37" s="2" t="str">
+        <v>090000</v>
+      </c>
       <c r="C37" s="557"/>
-      <c r="D37" s="302"/>
+      <c r="D37" s="2" t="str">
+        <v>Course0</v>
+      </c>
       <c r="E37" s="303"/>
       <c r="F37" s="303"/>
       <c r="G37" s="303"/>
       <c r="H37" s="304"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="609"/>
+      <c r="I37" s="2" t="str">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <v>水</v>
+      </c>
       <c r="K37" s="366"/>
-      <c r="L37" s="582"/>
+      <c r="L37" s="2" t="str">
+        <v>2023-07-12 18:04</v>
+      </c>
       <c r="M37" s="583"/>
       <c r="N37" s="583"/>
       <c r="O37" s="583"/>
       <c r="P37" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="Q37" s="580"/>
+      <c r="Q37" s="2" t="str">
+        <v>2023-07-13 18:04</v>
+      </c>
       <c r="R37" s="580"/>
       <c r="S37" s="580"/>
       <c r="T37" s="581"/>
-      <c r="U37" s="582">
-        <f>$Q37-$L37</f>
-        <v>0</v>
+      <c r="U37" s="2">
+        <v>23</v>
       </c>
       <c r="V37" s="583"/>
       <c r="W37" s="583"/>

--- a/public/excel/writed_form1.xlsx
+++ b/public/excel/writed_form1.xlsx
@@ -12728,7 +12728,7 @@
       <c r="S10" s="387"/>
       <c r="T10" s="387"/>
       <c r="U10" s="2" t="str">
-        <v>TA1</v>
+        <v>TA0</v>
       </c>
       <c r="V10" s="493"/>
       <c r="W10" s="493"/>
@@ -13041,7 +13041,7 @@
       </c>
       <c r="B19" s="224"/>
       <c r="C19" s="2" t="str">
-        <v>TA1</v>
+        <v>TA0</v>
       </c>
       <c r="D19" s="493"/>
       <c r="E19" s="493"/>
@@ -13064,7 +13064,7 @@
       </c>
       <c r="U19" s="348"/>
       <c r="V19" s="2" t="str">
-        <v>50M23001</v>
+        <v>50M23000</v>
       </c>
       <c r="W19" s="495"/>
       <c r="X19" s="495"/>
@@ -13858,41 +13858,30 @@
     </row>
     <row r="37" spans="1:32" customFormat="false" ht="25.5" customHeight="1">
       <c r="A37" s="560"/>
-      <c r="B37" s="2" t="str">
-        <v>090000</v>
-      </c>
+      <c r="B37" s="556"/>
       <c r="C37" s="557"/>
-      <c r="D37" s="2" t="str">
-        <v>Course0</v>
-      </c>
+      <c r="D37" s="302"/>
       <c r="E37" s="303"/>
       <c r="F37" s="303"/>
       <c r="G37" s="303"/>
       <c r="H37" s="304"/>
-      <c r="I37" s="2" t="str">
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="str">
-        <v>水</v>
-      </c>
+      <c r="I37" s="84"/>
+      <c r="J37" s="609"/>
       <c r="K37" s="366"/>
-      <c r="L37" s="2" t="str">
-        <v>2023-07-12 18:04</v>
-      </c>
+      <c r="L37" s="582"/>
       <c r="M37" s="583"/>
       <c r="N37" s="583"/>
       <c r="O37" s="583"/>
       <c r="P37" s="187" t="s">
         <v>65</v>
       </c>
-      <c r="Q37" s="2" t="str">
-        <v>2023-07-13 18:04</v>
-      </c>
+      <c r="Q37" s="580"/>
       <c r="R37" s="580"/>
       <c r="S37" s="580"/>
       <c r="T37" s="581"/>
-      <c r="U37" s="2">
-        <v>23</v>
+      <c r="U37" s="582">
+        <f>$Q37-$L37</f>
+        <v>0</v>
       </c>
       <c r="V37" s="583"/>
       <c r="W37" s="583"/>
